--- a/dataneed.xlsx
+++ b/dataneed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAYTOn\PycharmProjects\newNeuralMed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F17FD2-4B87-4109-8A45-EB189742406B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A5CFCC-DB70-4984-85C8-FA6A1C9D6A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -366,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H138"/>
+  <dimension ref="A1:H141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D141" sqref="D141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3962,6 +3962,75 @@
         <v>4</v>
       </c>
     </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>65.209999999999994</v>
+      </c>
+      <c r="B139">
+        <v>17.2</v>
+      </c>
+      <c r="C139">
+        <v>1200</v>
+      </c>
+      <c r="D139">
+        <v>5.2</v>
+      </c>
+      <c r="E139">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F139">
+        <v>15.6</v>
+      </c>
+      <c r="G139">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>102</v>
+      </c>
+      <c r="B140">
+        <v>30</v>
+      </c>
+      <c r="C140">
+        <v>535</v>
+      </c>
+      <c r="D140">
+        <v>12.3</v>
+      </c>
+      <c r="E140">
+        <v>2.8</v>
+      </c>
+      <c r="F140">
+        <v>6.7</v>
+      </c>
+      <c r="G140">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>65.209999999999994</v>
+      </c>
+      <c r="B141">
+        <v>30</v>
+      </c>
+      <c r="C141">
+        <v>1200</v>
+      </c>
+      <c r="D141">
+        <v>5.2</v>
+      </c>
+      <c r="E141">
+        <v>2.8</v>
+      </c>
+      <c r="F141">
+        <v>6.7</v>
+      </c>
+      <c r="G141">
+        <v>1.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
